--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/94.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/94.xlsx
@@ -479,13 +479,13 @@
         <v>-4.53961178257727</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.39242395584725</v>
+        <v>-10.35700927666038</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.193503407598598</v>
+        <v>-3.19753583687385</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.480119742522339</v>
+        <v>-7.399759187679824</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.488513664287196</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.94628073526363</v>
+        <v>-10.91362853197637</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.287846541876076</v>
+        <v>-3.294562893233882</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.357091372718639</v>
+        <v>-7.280972723996843</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.356394358793966</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.10067826267611</v>
+        <v>-11.06878541295366</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.184954133842951</v>
+        <v>-3.193660515232699</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.974220068415201</v>
+        <v>-6.901256664678263</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.146848455578771</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.55969440030702</v>
+        <v>-11.52879656560055</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.328236296142801</v>
+        <v>-3.337021231349599</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.675781025138056</v>
+        <v>-6.604270867016548</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.862554962247503</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.9735159085283</v>
+        <v>-11.94768479502157</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.402391099438338</v>
+        <v>-3.413689756790747</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.39235885322037</v>
+        <v>-6.321503310240948</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.509008363625441</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.5147648003081</v>
+        <v>-12.49104154755889</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.280855252158594</v>
+        <v>-3.291813509637119</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.073273248361822</v>
+        <v>-6.005376565824631</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.096372938964532</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.0891503105803</v>
+        <v>-13.06601621145897</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.264673165846221</v>
+        <v>-3.280056621685249</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.906267833312764</v>
+        <v>-5.840295719293307</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.637077976026634</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.50568192548982</v>
+        <v>-13.48409271810381</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.382674091358698</v>
+        <v>-3.397337470541431</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.756046750506799</v>
+        <v>-5.694067788854069</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.145093161314817</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.1939573781822</v>
+        <v>-14.16647663451742</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.25639883045025</v>
+        <v>-3.271481163323918</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.716809118890147</v>
+        <v>-5.657435525502919</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.642323209755397</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.63659504495812</v>
+        <v>-14.61030570085193</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.338042430971254</v>
+        <v>-3.353779378987009</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.729757406400614</v>
+        <v>-5.666626322097811</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.150033037182127</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.20050671295694</v>
+        <v>-15.1718476620364</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.37472706353377</v>
+        <v>-3.390778226817726</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.462713705337928</v>
+        <v>-5.404060188606994</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.6856976590737213</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.28055305253126</v>
+        <v>-15.25209038615334</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.477593286961212</v>
+        <v>-3.48925852879319</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.014105948466184</v>
+        <v>-4.955007293438632</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2672959711589956</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.97462839538252</v>
+        <v>-15.94418879127551</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.166205956173599</v>
+        <v>-3.181288289047268</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.651946667258357</v>
+        <v>-4.592167212483035</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.09527740431747868</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.57268478919257</v>
+        <v>-16.54219281587419</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.105745701650508</v>
+        <v>-3.118890373703601</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.599551271285769</v>
+        <v>-4.543136538340772</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4006471378235459</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.34188376574966</v>
+        <v>-17.31016111596416</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.903783838014042</v>
+        <v>-2.921497723758897</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.359019483477578</v>
+        <v>-4.300693274317688</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6495571510344209</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.8503888081223</v>
+        <v>-17.8203943423119</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.775047224171349</v>
+        <v>-2.791543525751925</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.12739046160176</v>
+        <v>-4.063395285311403</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.849587510814201</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.27502455849084</v>
+        <v>-18.24255564744336</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.85810479339926</v>
+        <v>-2.87502004867077</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.040928893635002</v>
+        <v>-3.976684963590651</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.011404451096218</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.85408402087754</v>
+        <v>-18.81790998812586</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.635496368181391</v>
+        <v>-2.654637314935995</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.680157396528398</v>
+        <v>-3.613255729007177</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.142670698071074</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.17530367109929</v>
+        <v>-19.1393783921016</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.392725796587265</v>
+        <v>-2.411382328136725</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.314292993616363</v>
+        <v>-3.242455527923812</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.249600011707932</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.87177490537059</v>
+        <v>-19.83059961293337</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.152246377990441</v>
+        <v>-2.17098146335695</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.284128327869026</v>
+        <v>-3.206923018011367</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.333968663603553</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.44046526390665</v>
+        <v>-20.39582051121636</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.948791991830017</v>
+        <v>-1.970944168238218</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.259396967801005</v>
+        <v>-3.183422334410469</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.3918497250778</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.6415761278584</v>
+        <v>-20.59374994557758</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.816939409910994</v>
+        <v>-1.840623385751676</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.095180213257235</v>
+        <v>-3.0139031972158</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.417589210305417</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.17911989793399</v>
+        <v>-21.12778497849159</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.623618466150067</v>
+        <v>-1.643728243314958</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.239313375241798</v>
+        <v>-3.160248958380614</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.404972741788356</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.34797132768373</v>
+        <v>-21.29537954716852</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.434343043967233</v>
+        <v>-1.455002697851477</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.245911895874027</v>
+        <v>-3.170028908603383</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.349130777854223</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.45689928732689</v>
+        <v>-21.40642845987204</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.449962161257413</v>
+        <v>-1.468592508201189</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.449012789857724</v>
+        <v>-3.375237663344598</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.249179169743925</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.536880165387</v>
+        <v>-21.48602966114974</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.271265319770693</v>
+        <v>-1.297489202362671</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.676661751669657</v>
+        <v>-3.607521300362502</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.110287836682157</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.45591736461376</v>
+        <v>-21.40841848990398</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.227576305187853</v>
+        <v>-1.249492820144903</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.707389386439188</v>
+        <v>-3.640513903523651</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9419775049196095</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.51777849554092</v>
+        <v>-21.46696726821218</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.072432516513399</v>
+        <v>-1.095854646297247</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.019405147763203</v>
+        <v>-3.951691757465797</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.753917770878867</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.55776238841955</v>
+        <v>-21.50674168424534</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.166251958677208</v>
+        <v>-1.187919719880265</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.205577694172549</v>
+        <v>-4.136044473780141</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.5552013950098384</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.39958118548582</v>
+        <v>-21.34816771222636</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.234489041088285</v>
+        <v>-1.255253433395262</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.248284786042259</v>
+        <v>-4.180414288110751</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.3553406554746786</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.27707650779579</v>
+        <v>-21.22917177169791</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.324236777068317</v>
+        <v>-1.34367884678828</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.555862256702929</v>
+        <v>-4.492286034103508</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.1640652849906573</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.23744610709388</v>
+        <v>-21.18745969484417</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39540653531594</v>
+        <v>-1.415437758663781</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.462684337378365</v>
+        <v>-4.398898637933476</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.007922039231352497</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.8451483447444</v>
+        <v>-20.79478225571228</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.546400063989567</v>
+        <v>-1.564087765128739</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.393190393894483</v>
+        <v>-4.331041232304809</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.1471465506457037</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.58191450380866</v>
+        <v>-20.53132584562823</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.573160730998055</v>
+        <v>-1.592131477815716</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.361651036348765</v>
+        <v>-4.296778675768012</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.2403060447558255</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.34671128325705</v>
+        <v>-20.2967117787045</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.749658065607364</v>
+        <v>-1.767398135957903</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.248206232225209</v>
+        <v>-4.186371285903737</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.2777997209046585</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.06019932786872</v>
+        <v>-20.01146977669181</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.756754093747579</v>
+        <v>-1.774101395012866</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.084107308407014</v>
+        <v>-4.016302271989715</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.254283512305841</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.74057693859366</v>
+        <v>-19.69276384861567</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.827138313824699</v>
+        <v>-1.84390955376495</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.708292755335267</v>
+        <v>-3.646837485796205</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.1739017828356216</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.61421003156532</v>
+        <v>-19.56544120347989</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.768170581825564</v>
+        <v>-1.782781591796931</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.372972694952979</v>
+        <v>-3.310744979546255</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.04959460498849791</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.236457817673</v>
+        <v>-19.1914333882003</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.896985749485307</v>
+        <v>-1.918129818574695</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.518244887284772</v>
+        <v>-3.45982703200499</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1022445407752215</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.85566818952139</v>
+        <v>-18.81458454320406</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.750090111601141</v>
+        <v>-1.773224210722471</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.116232636226731</v>
+        <v>-3.055314151104179</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2632242122450326</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.30177213319649</v>
+        <v>-18.26367353192706</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.858900240518726</v>
+        <v>-1.88039780178484</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.023565316712994</v>
+        <v>-2.959936724902205</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4145468022276482</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95335976997247</v>
+        <v>-17.91591578384514</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.14670833388839</v>
+        <v>-2.164003265942311</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.936318210575731</v>
+        <v>-2.871786249868864</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5371985526337699</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.76894159214392</v>
+        <v>-17.73223077497572</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.262614490946191</v>
+        <v>-2.27929408476655</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.745327696720631</v>
+        <v>-2.685783903396461</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6155599270122242</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.58863439740767</v>
+        <v>-17.55769728579267</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.185671027145367</v>
+        <v>-2.197925422605223</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.698090668067683</v>
+        <v>-2.63594150647801</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.641936580840956</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.16098741738553</v>
+        <v>-17.13320555075538</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.304981182942017</v>
+        <v>-2.318610270200254</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.506720477430174</v>
+        <v>-2.444388023600716</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6162526516866741</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.22182734869103</v>
+        <v>-17.20036906433344</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.20655325017792</v>
+        <v>-2.22301027484997</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.391364197091725</v>
+        <v>-2.327355928498527</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5446485707069932</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.09603650298773</v>
+        <v>-17.07343918828291</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.345370937208742</v>
+        <v>-2.359890301060216</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.170130463672238</v>
+        <v>-2.107287410031953</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4377659592882462</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.64308210157253</v>
+        <v>-16.61884824901249</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.368793066992589</v>
+        <v>-2.384752584156653</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.131521262591988</v>
+        <v>-2.065915733052099</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.307344152412871</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.3549074237233</v>
+        <v>-16.33635563059657</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.553381444758085</v>
+        <v>-2.570100315486969</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.946500838832715</v>
+        <v>-1.881576109040596</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1644941264977204</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.89871922350619</v>
+        <v>-15.88207890659436</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.663265142508692</v>
+        <v>-2.677967798599951</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.847640860074842</v>
+        <v>-1.78414319129247</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.01826214577234986</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.73441082284253</v>
+        <v>-15.71914519772908</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.567167639650423</v>
+        <v>-2.583951971893516</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.794643218171535</v>
+        <v>-1.732847548758587</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1274678915384551</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.27343083978536</v>
+        <v>-15.26028616773226</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.456210373066794</v>
+        <v>-2.469826368022189</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.810275427764556</v>
+        <v>-1.750273403840925</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2734615322520442</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.93424855006476</v>
+        <v>-14.92408892305958</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.664142326799088</v>
+        <v>-2.676789491344195</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.007929923766094</v>
+        <v>-1.946474654227032</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4225931472304548</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.55393024481546</v>
+        <v>-14.54193769541244</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.67826892156531</v>
+        <v>-2.6942677156379</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.040883250018719</v>
+        <v>-1.979310149754081</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.580577689032644</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.64497411877682</v>
+        <v>-14.63256261568286</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.522444333143087</v>
+        <v>-2.535222420716611</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.929192814475953</v>
+        <v>-1.865485668848114</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.7545386855044296</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.50140392581445</v>
+        <v>-14.48719877723118</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.673228384971246</v>
+        <v>-2.686831287623799</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.111555500758356</v>
+        <v>-2.050466815698862</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.9505178248929146</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.4148507117278</v>
+        <v>-14.40456016169421</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.538521681032726</v>
+        <v>-2.551587799268769</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.453552635589924</v>
+        <v>-2.394139765294171</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.176786608344673</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.07577316042994</v>
+        <v>-14.06734171739987</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.533193113776144</v>
+        <v>-2.543850248289309</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.693495269770238</v>
+        <v>-2.628007570955924</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.44029364271346</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.76388832213434</v>
+        <v>-13.75418692572862</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.584619679338444</v>
+        <v>-2.596324198078947</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.860107915734044</v>
+        <v>-2.797487431242068</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.742630839863312</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.78435159147596</v>
+        <v>-13.77243759588999</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.443969069909781</v>
+        <v>-2.457742172499277</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.023447485987418</v>
+        <v>-2.961219770580694</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.083574529350111</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.6039789352255</v>
+        <v>-13.58812415648417</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.42431752334435</v>
+        <v>-2.438535764230465</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.19655391416072</v>
+        <v>-3.134653506325039</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.457065193876126</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.51533095268417</v>
+        <v>-13.49596743678126</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.508972353518951</v>
+        <v>-2.526673146960964</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.18737620986867</v>
+        <v>-3.126444632443277</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.850726933467394</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.30186095484983</v>
+        <v>-13.28162025465652</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.38692590642838</v>
+        <v>-2.401497639491221</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.271847747803487</v>
+        <v>-3.211662431640072</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.253084926160227</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.20089311533444</v>
+        <v>-13.17699966264829</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.36333357670759</v>
+        <v>-2.379973893619423</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.536102788360886</v>
+        <v>-3.476977948727651</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.649431531628896</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.12971026478397</v>
+        <v>-13.10666781178253</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.422144201072623</v>
+        <v>-2.439020179435608</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.487399421789665</v>
+        <v>-3.430735935090675</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.02158315769865</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.20821171262296</v>
+        <v>-13.18124156876901</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.549270461665783</v>
+        <v>-2.565439455675315</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.436588194460926</v>
+        <v>-3.378406000632296</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.354094132805043</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.2743671188822</v>
+        <v>-13.24434646846612</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.59733230539776</v>
+        <v>-2.616695821300673</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.541719386279986</v>
+        <v>-3.485553407088982</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.630214043803553</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.08895392603768</v>
+        <v>-13.05660284571577</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.398329302203523</v>
+        <v>-2.417522618169494</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.375983924606576</v>
+        <v>-3.319739391598521</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.834145064149803</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.22655402890422</v>
+        <v>-13.19369234877149</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.663134219480275</v>
+        <v>-2.682406089263296</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.328917095890571</v>
+        <v>-3.270931286604566</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.957936250322706</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.13396526320753</v>
+        <v>-13.10178438282257</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.705828219047144</v>
+        <v>-2.72301841267833</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.171429785007448</v>
+        <v>-3.114530636857306</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.997333860066308</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.26207344651382</v>
+        <v>-13.22843932051343</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.768330872813544</v>
+        <v>-2.786476804552176</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.199185467031907</v>
+        <v>-3.137350520710435</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.9526785527232</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.4025407637027</v>
+        <v>-13.36656311549364</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.767362042403256</v>
+        <v>-2.788218080830126</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.095874105307847</v>
+        <v>-3.032873944033461</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.830590702959325</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.63854261472765</v>
+        <v>-13.60316721244931</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.824863436484117</v>
+        <v>-2.847434566583253</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.157368651755434</v>
+        <v>-3.095926474519214</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.638043242188576</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.86743534530955</v>
+        <v>-13.8400593400675</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.903574361168574</v>
+        <v>-2.925242122371631</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.015408812042598</v>
+        <v>-2.951282712723824</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.384312239808148</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.01139830735717</v>
+        <v>-13.97959710375462</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.057474381073064</v>
+        <v>-3.08118454151943</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.663788834622361</v>
+        <v>-2.5950542447033</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.082439501147315</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.4911264680837</v>
+        <v>-14.46299110927683</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.181497765892735</v>
+        <v>-3.20565306463572</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.398447132929099</v>
+        <v>-2.327958174429246</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.743407889649562</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.27032796401187</v>
+        <v>-15.24098811334356</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.397036347576071</v>
+        <v>-3.419489646949632</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.247401235044105</v>
+        <v>-2.177710907017598</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.379129916714943</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.68437204138145</v>
+        <v>-15.65670800547689</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.311674533048018</v>
+        <v>-3.337427092737693</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.240881268228926</v>
+        <v>-2.163963989033785</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.002119783435791</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.11853898821877</v>
+        <v>-16.09751274985496</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.522395147285599</v>
+        <v>-3.547401445713295</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.067185686427746</v>
+        <v>-1.989522145970627</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.620143868942081</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.7529527070203</v>
+        <v>-16.73239779155879</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.672171091794945</v>
+        <v>-3.697504697793685</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.789812158422938</v>
+        <v>-1.713431663644308</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.240765784221574</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.44873004924099</v>
+        <v>-17.43055793289667</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.925219121119826</v>
+        <v>-3.950984773112343</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.808665074515023</v>
+        <v>-1.728042673615674</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.870554515267266</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.28730513855638</v>
+        <v>-18.26906756069786</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.164847540031938</v>
+        <v>-4.189552715494275</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.892220151250919</v>
+        <v>-1.807015444356966</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.51172370713934</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.06488318893217</v>
+        <v>-19.04654087265092</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.391894255913152</v>
+        <v>-4.417947938568187</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.662162205716109</v>
+        <v>-1.576590914342587</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.16873200885694</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.96395780967919</v>
+        <v>-19.9491504151652</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.554304272664764</v>
+        <v>-4.581614816392604</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.679417860861504</v>
+        <v>-1.592563523809493</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.8490196955130161</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.17630505282302</v>
+        <v>-21.16580502594396</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.771505576808999</v>
+        <v>-4.79995515088407</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.647891595618627</v>
+        <v>-1.558458074906796</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5598162150990444</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.26451108042161</v>
+        <v>-22.25410269966244</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.822473911771839</v>
+        <v>-4.85039979373324</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.893385366203833</v>
+        <v>-1.80386019937211</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3117818643873176</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.65983634808141</v>
+        <v>-23.6531199967236</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.857875498655866</v>
+        <v>-4.886809487936081</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.904121054534048</v>
+        <v>-1.809895750982145</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1180137327469122</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.01657859926664</v>
+        <v>-25.01225813932887</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.119407340222186</v>
+        <v>-5.148406791016609</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.031077115190266</v>
+        <v>-1.939129872332823</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.01103780517210835</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.56095973477949</v>
+        <v>-26.55671782865877</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.218699364973837</v>
+        <v>-5.247711908071102</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.237922407786696</v>
+        <v>-2.142427150859146</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06623329143635145</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.09659521199406</v>
+        <v>-28.09252350581028</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.465790396505732</v>
+        <v>-5.497643969319652</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.495173066323771</v>
+        <v>-2.403657869460106</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03958679289353777</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.80300668747611</v>
+        <v>-29.79606776697</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.612489649847273</v>
+        <v>-5.644735991746445</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.738702991482718</v>
+        <v>-2.643351749886427</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.07058729952366008</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.52580972611601</v>
+        <v>-31.5186875133701</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.770579206661115</v>
+        <v>-5.801267564522122</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.171128662042088</v>
+        <v>-3.077440142906696</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2616062354597097</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.17567554562464</v>
+        <v>-33.16711317956615</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.729862144823348</v>
+        <v>-5.75718578085403</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.577068603952647</v>
+        <v>-3.485880714660025</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.5263799988389259</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.17095559100653</v>
+        <v>-35.16099234854398</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.943751096348627</v>
+        <v>-5.97214830121233</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.773728084938214</v>
+        <v>-3.679293304540844</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.850879787870838</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.0021890817816</v>
+        <v>-36.98921460966545</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.275811173323325</v>
+        <v>-6.301419717681741</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.357094914959844</v>
+        <v>-4.266142687118373</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.212511624790607</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.09721938251461</v>
+        <v>-39.08396997203878</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.261959516916779</v>
+        <v>-6.288196491811598</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.692257867708031</v>
+        <v>-4.598831194629474</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.594024312494827</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.35523576132426</v>
+        <v>-41.3385561675039</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.475665176202273</v>
+        <v>-6.499322967437272</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.207662553678261</v>
+        <v>-5.114785757319057</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.964959670961619</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.29801567231083</v>
+        <v>-43.2809040324967</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.585902366129607</v>
+        <v>-6.609835095724282</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.468565964708179</v>
+        <v>-5.379027705573614</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.311220583681423</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.40465884566445</v>
+        <v>-45.38352786887791</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.707385844197983</v>
+        <v>-6.727796744328233</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.560722684411089</v>
+        <v>-5.472415101743646</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.59901994265832</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.57376539587594</v>
+        <v>-47.55296172666043</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.851885590662113</v>
+        <v>-6.870764691359883</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.032006309804702</v>
+        <v>-5.945937510923194</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.839937363174839</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.72549846021646</v>
+        <v>-49.70074091554276</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.273811234342419</v>
+        <v>-7.293200934851016</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.465518641499935</v>
+        <v>-6.380471042240083</v>
       </c>
     </row>
   </sheetData>
